--- a/pred_ohlcv/54_21/2020-01-16 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8854047.211859351</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7095802.084559351</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>7031183.739159351</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>7045328.760359352</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>7057352.368159352</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>7098051.828459352</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>6761049.489859352</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>6763231.223359352</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6763246.223359352</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6755359.728459352</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>6755474.728459352</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>6755459.578459351</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6650227.661059352</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6650982.661059352</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6604545.475459351</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5600773.330359351</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>5473863.48005935</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>5417515.83025935</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>5322885.67795935</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>5322885.67795935</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5312537.33895935</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>5308052.00185935</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>5308052.00185935</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>5366216.222171273</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>5295883.410871273</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>5295823.410871273</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5172157.415771273</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>5017404.161571273</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>5017404.161571273</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>5022117.800471272</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>5028664.595071272</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5036179.388371272</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5036179.388371272</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>5045037.812995399</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>5079935.557671272</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>5188409.603225595</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>5188002.430825596</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>5239851.352425596</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>5206579.664725596</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>5187451.559625596</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>5184866.959625596</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>5165952.160725596</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>5040768.350525596</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>5040768.350525596</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>5042917.595225596</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4992859.547825596</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4992859.547825596</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4970869.136325596</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4955877.330925596</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3181202.540319023</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3181202.540319023</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3146731.484719023</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3145356.619919023</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3137163.123519023</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3068811.216519022</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>2945311.272119022</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2945311.272119022</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2964380.504896184</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2964380.504896184</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2964380.504896184</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2964416.328896184</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2937281.507096184</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2873026.685596184</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2836178.580696184</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2836178.580696184</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2826178.580696184</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>2824562.037096184</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2824562.037096184</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>2824562.037096184</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>2824562.037096184</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>2824562.037096184</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>2846757.704496184</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>2854307.704496184</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>2865731.808213831</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>2866481.808213831</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>2866481.808213831</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>3435445.315093162</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>3391058.359177503</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>3391058.359177503</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>3286180.594377503</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3286246.594377503</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3182394.939977503</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3183714.193377503</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>3182141.123777503</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>3208352.070077503</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>3203829.277777503</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>3203829.277777503</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>3085697.110477503</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>3126969.263977503</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>3126969.263977503</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>3122780.709677503</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>3116269.572377503</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>3076498.436277503</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>3070444.415877503</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>2982905.877577503</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>2983595.532749917</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>2980737.932949917</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>2980754.932949917</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>2978177.760549917</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>2978177.760549917</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-8365767.452016165</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-8312279.537216164</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-4515916.292085238</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-4515898.292085238</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-4515898.292085238</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-4515898.292085238</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-4515881.292085238</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-4513954.280885238</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-4513937.280885238</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-4514009.280885238</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-4513792.280885238</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-4512772.280885238</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-4513520.986085238</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-4513520.986085238</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-4482892.462141623</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-4484508.015741623</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4673659.285258377</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-218369.7780416226</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-181280.5252416226</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-195854.2183416226</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-195837.2183416226</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-200143.7398416226</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-230493.4142416226</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-240432.5027416226</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-240432.5027416226</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-193743.4719349731</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-193743.4719349731</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-198850.1852349731</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-198743.1852349731</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-159673.8287480041</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-159529.225570285</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-159547.225570285</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8854047.211859351</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7095802.084559351</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>7031183.739159351</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>7045328.760359352</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>7057352.368159352</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>7069486.976059352</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>7058001.828459352</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>7098051.828459352</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>6761049.489859352</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>6763231.223359352</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>6755459.578459351</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>6770459.578459351</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5600773.330359351</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>5473863.48005935</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>5417515.83025935</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>5322885.67795935</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>5322885.67795935</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5312537.33895935</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>5308052.00185935</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>5308052.00185935</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>5366216.222171273</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>5295883.410871273</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>5295823.410871273</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5172157.415771273</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>5017404.161571273</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>5017404.161571273</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>5022117.800471272</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>5028664.595071272</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5036179.388371272</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5036179.388371272</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>5045037.812995399</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>5079935.557671272</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>5188409.603225595</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>5188002.430825596</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>5239851.352425596</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>5206579.664725596</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>5187451.559625596</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>5184866.959625596</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>5165952.160725596</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>5040768.350525596</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>5040768.350525596</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>5042917.595225596</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4992859.547825596</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4992859.547825596</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4970869.136325596</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4955877.330925596</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3181202.540319023</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3181202.540319023</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3146731.484719023</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3145356.619919023</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3137163.123519023</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3068811.216519022</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>2964416.328896184</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2964416.328896184</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2965776.495796184</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>2866481.808213831</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>2867697.868517232</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>3435445.315093162</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>3391058.359177503</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>3391058.359177503</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>3286180.594377503</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3286246.594377503</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3182394.939977503</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3183714.193377503</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>3182141.123777503</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>3208352.070077503</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>3203829.277777503</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>3203829.277777503</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>3085697.110477503</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>3126969.263977503</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>3126969.263977503</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>3122780.709677503</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>3116269.572377503</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>3076498.436277503</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>3070444.415877503</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>2982905.877577503</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>2983595.532749917</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>2980737.932949917</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>2980754.932949917</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>2978177.760549917</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>2978177.760549917</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-8365767.452016165</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-8312279.537216164</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-4451117.143485237</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-4451045.143485237</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-4469895.481785237</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-4469733.481785237</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-4469733.481785237</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-4470637.570485237</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-4473937.683785237</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-4484937.924485237</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-4482892.462141623</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-4496357.714741623</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-218369.7780416226</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-181280.5252416226</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-195854.2183416226</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-200143.7398416226</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-230493.4142416226</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-240432.5027416226</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-240432.5027416226</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-193743.4719349731</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-193743.4719349731</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-198850.1852349731</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-198743.1852349731</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-159673.8287480041</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-159529.225570285</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-159547.225570285</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
